--- a/34枚金币时间管理法2107.xlsx
+++ b/34枚金币时间管理法2107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20085" windowHeight="10155"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="121">
   <si>
     <t>34枚金币时间管理法</t>
   </si>
@@ -69,15 +69,24 @@
     <t>6:30-7:00</t>
   </si>
   <si>
+    <t>跑步</t>
+  </si>
+  <si>
     <t>本周关键词</t>
   </si>
   <si>
     <t>7:00-7:30</t>
   </si>
   <si>
+    <t>洗漱</t>
+  </si>
+  <si>
     <t>7:30-8:00</t>
   </si>
   <si>
+    <t>上班路上</t>
+  </si>
+  <si>
     <t>8:00-8:30</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
     <t>9:00-9:30</t>
   </si>
   <si>
+    <t>吃饭</t>
+  </si>
+  <si>
     <t>9:30-10:00</t>
   </si>
   <si>
@@ -117,6 +129,9 @@
     <t>13:30-14:00</t>
   </si>
   <si>
+    <t>午休</t>
+  </si>
+  <si>
     <t>本周做得最有意义的工作</t>
   </si>
   <si>
@@ -225,9 +240,6 @@
     <t>文章《错了就加倍再来！总得回来吧！一次就回本赚钱！——永远有人信的赌徒谬误》</t>
   </si>
   <si>
-    <t>洗漱</t>
-  </si>
-  <si>
     <t>文章《庞氏骗局》</t>
   </si>
   <si>
@@ -235,9 +247,6 @@
   </si>
   <si>
     <t>洗漱，早餐</t>
-  </si>
-  <si>
-    <t>吃饭</t>
   </si>
   <si>
     <t>看综艺</t>
@@ -377,10 +386,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -438,7 +447,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,17 +491,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,21 +500,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +514,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,8 +528,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -531,14 +577,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -547,35 +585,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,25 +659,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,91 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +731,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +779,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,25 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,8 +959,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,15 +985,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,17 +1004,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,21 +1043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1049,152 +1058,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,18 +1294,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1315,6 +1342,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,15 +1363,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1363,6 +1387,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,24 +1417,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,63 +1480,81 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5114,8 +5141,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8785860" y="12616180"/>
-        <a:ext cx="6219190" cy="3385820"/>
+        <a:off x="7884160" y="12578080"/>
+        <a:ext cx="5671820" cy="2776220"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5149,8 +5176,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8785860" y="12616180"/>
-        <a:ext cx="6219190" cy="3385820"/>
+        <a:off x="7884160" y="12578080"/>
+        <a:ext cx="5671820" cy="2776220"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5184,8 +5211,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8542655" y="12428220"/>
-        <a:ext cx="7586980" cy="5785485"/>
+        <a:off x="7640955" y="12428220"/>
+        <a:ext cx="6724015" cy="4756785"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5485,31 +5512,31 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B24" sqref="B24"/>
+      <selection pane="topRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.3777777777778" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.3777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="19.6222222222222" customWidth="1"/>
-    <col min="6" max="6" width="19.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="18.5037037037037" customWidth="1"/>
-    <col min="8" max="8" width="19.3777777777778" customWidth="1"/>
-    <col min="9" max="9" width="33.1259259259259" customWidth="1"/>
-    <col min="10" max="16" width="20.5259259259259" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="10" max="16" width="20.525" customWidth="1"/>
     <col min="17" max="17" width="39.4666666666667" customWidth="1"/>
-    <col min="18" max="24" width="20.5259259259259" customWidth="1"/>
-    <col min="25" max="25" width="39.1259259259259" customWidth="1"/>
-    <col min="26" max="32" width="20.5259259259259" customWidth="1"/>
+    <col min="18" max="24" width="20.525" customWidth="1"/>
+    <col min="25" max="25" width="39.125" customWidth="1"/>
+    <col min="26" max="32" width="20.525" customWidth="1"/>
     <col min="33" max="33" width="40.8" customWidth="1"/>
-    <col min="34" max="64" width="20.5259259259259" customWidth="1"/>
-    <col min="65" max="142" width="17.6222222222222" customWidth="1"/>
+    <col min="34" max="64" width="20.525" customWidth="1"/>
+    <col min="65" max="142" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41.25" customHeight="1" spans="1:33">
@@ -5795,7 +5822,7 @@
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="85"/>
       <c r="D5" s="85"/>
       <c r="E5" s="85"/>
@@ -5818,7 +5845,9 @@
       <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
@@ -5826,7 +5855,7 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
@@ -5836,20 +5865,22 @@
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
       <c r="Q6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="85"/>
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" s="85"/>
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
@@ -5870,9 +5901,11 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="85"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -5893,9 +5926,9 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="85"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="95"/>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
       <c r="E9" s="85"/>
@@ -5903,7 +5936,7 @@
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
@@ -5913,20 +5946,20 @@
       <c r="O9" s="90"/>
       <c r="P9" s="90"/>
       <c r="Q9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="85"/>
+        <v>25</v>
+      </c>
+      <c r="B10" s="96"/>
       <c r="C10" s="85"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -5938,7 +5971,7 @@
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
       <c r="M10" s="90"/>
-      <c r="N10" s="93"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
       <c r="Q10" s="89"/>
@@ -5947,9 +5980,11 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="85"/>
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="85"/>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
@@ -5964,15 +5999,15 @@
       <c r="N11" s="90"/>
       <c r="O11" s="90"/>
       <c r="P11" s="90"/>
-      <c r="Q11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="AG11" s="92"/>
+      <c r="Q11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="AG11" s="93"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="85"/>
+        <v>28</v>
+      </c>
+      <c r="B12" s="97"/>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
       <c r="E12" s="85"/>
@@ -5987,15 +6022,15 @@
       <c r="N12" s="90"/>
       <c r="O12" s="90"/>
       <c r="P12" s="90"/>
-      <c r="Q12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="AG12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="AG12" s="93"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="85"/>
+        <v>29</v>
+      </c>
+      <c r="B13" s="98"/>
       <c r="C13" s="86"/>
       <c r="D13" s="85"/>
       <c r="E13" s="85"/>
@@ -6010,15 +6045,15 @@
       <c r="N13" s="90"/>
       <c r="O13" s="90"/>
       <c r="P13" s="90"/>
-      <c r="Q13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="AG13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="AG13" s="93"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="85"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="98"/>
       <c r="C14" s="85"/>
       <c r="D14" s="85"/>
       <c r="E14" s="85"/>
@@ -6033,15 +6068,15 @@
       <c r="N14" s="90"/>
       <c r="O14" s="90"/>
       <c r="P14" s="90"/>
-      <c r="Q14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="AG14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="AG14" s="93"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="85"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="98"/>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
       <c r="E15" s="85"/>
@@ -6056,15 +6091,15 @@
       <c r="N15" s="90"/>
       <c r="O15" s="90"/>
       <c r="P15" s="90"/>
-      <c r="Q15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="AG15" s="92"/>
+      <c r="Q15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="AG15" s="93"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="85"/>
+        <v>32</v>
+      </c>
+      <c r="B16" s="99"/>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
       <c r="E16" s="85"/>
@@ -6079,22 +6114,24 @@
       <c r="N16" s="90"/>
       <c r="O16" s="90"/>
       <c r="P16" s="90"/>
-      <c r="Q16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="AG16" s="92"/>
+      <c r="Q16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="AG16" s="93"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="84"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" s="85"/>
       <c r="D17" s="85"/>
       <c r="E17" s="85"/>
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
-      <c r="I17" s="92"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
       <c r="L17" s="90"/>
@@ -6102,22 +6139,22 @@
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
-      <c r="Q17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="AG17" s="92"/>
+      <c r="Q17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="AG17" s="93"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="85"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85"/>
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
-      <c r="I18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
       <c r="L18" s="90"/>
@@ -6125,15 +6162,15 @@
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
-      <c r="Q18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="AG18" s="92"/>
+      <c r="Q18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="AG18" s="93"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="85"/>
+        <v>35</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="85"/>
       <c r="D19" s="85"/>
       <c r="E19" s="85"/>
@@ -6154,9 +6191,11 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="85"/>
+        <v>36</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="C20" s="85"/>
       <c r="D20" s="85"/>
       <c r="E20" s="85"/>
@@ -6164,7 +6203,7 @@
       <c r="G20" s="85"/>
       <c r="H20" s="85"/>
       <c r="I20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
@@ -6174,20 +6213,20 @@
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Y20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AG20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="85"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="97"/>
       <c r="C21" s="85"/>
       <c r="D21" s="85"/>
       <c r="E21" s="85"/>
@@ -6208,9 +6247,9 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="85"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="98"/>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
       <c r="E22" s="85"/>
@@ -6231,16 +6270,16 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="85"/>
+        <v>41</v>
+      </c>
+      <c r="B23" s="98"/>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
       <c r="E23" s="85"/>
       <c r="F23" s="85"/>
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
-      <c r="I23" s="92"/>
+      <c r="I23" s="93"/>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
       <c r="L23" s="90"/>
@@ -6248,15 +6287,15 @@
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="AG23" s="92"/>
+      <c r="Q23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="AG23" s="93"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="85"/>
+        <v>42</v>
+      </c>
+      <c r="B24" s="98"/>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
       <c r="E24" s="85"/>
@@ -6277,9 +6316,9 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="85"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="98"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
       <c r="E25" s="85"/>
@@ -6287,7 +6326,7 @@
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
@@ -6297,20 +6336,20 @@
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Y25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AG25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="85"/>
+        <v>45</v>
+      </c>
+      <c r="B26" s="98"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85"/>
@@ -6331,9 +6370,9 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="85"/>
+        <v>46</v>
+      </c>
+      <c r="B27" s="99"/>
       <c r="C27" s="85"/>
       <c r="D27" s="85"/>
       <c r="E27" s="85"/>
@@ -6354,9 +6393,11 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="85"/>
+        <v>47</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>27</v>
+      </c>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="85"/>
@@ -6377,9 +6418,9 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="85"/>
+        <v>48</v>
+      </c>
+      <c r="B29" s="96"/>
       <c r="C29" s="85"/>
       <c r="D29" s="85"/>
       <c r="E29" s="85"/>
@@ -6400,9 +6441,9 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A30" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="85"/>
+        <v>49</v>
+      </c>
+      <c r="B30" s="97"/>
       <c r="C30" s="85"/>
       <c r="D30" s="85"/>
       <c r="E30" s="85"/>
@@ -6423,9 +6464,9 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A31" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="85"/>
+        <v>50</v>
+      </c>
+      <c r="B31" s="99"/>
       <c r="C31" s="85"/>
       <c r="D31" s="85"/>
       <c r="E31" s="85"/>
@@ -6446,7 +6487,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A32" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
@@ -6469,7 +6510,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A33" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B33" s="85"/>
       <c r="C33" s="85"/>
@@ -6479,7 +6520,7 @@
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
       <c r="I33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
@@ -6489,18 +6530,18 @@
       <c r="O33" s="90"/>
       <c r="P33" s="90"/>
       <c r="Q33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Y33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AG33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A34" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="85"/>
@@ -6523,7 +6564,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A35" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="85"/>
@@ -6546,7 +6587,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A36" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
@@ -6569,7 +6610,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A37" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="85"/>
@@ -6587,18 +6628,18 @@
       <c r="O37" s="90"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Y37" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AG37" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A38" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B38" s="85"/>
       <c r="C38" s="85"/>
@@ -6621,7 +6662,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A39" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B39" s="85"/>
       <c r="C39" s="85"/>
@@ -6644,7 +6685,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A40" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
@@ -6667,209 +6708,209 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="21" customHeight="1" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="58"/>
+        <v>64</v>
+      </c>
+      <c r="C43" s="64"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="59"/>
+        <v>65</v>
+      </c>
+      <c r="C44" s="65"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="60"/>
+        <v>66</v>
+      </c>
+      <c r="C45" s="66"/>
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="61"/>
+        <v>67</v>
+      </c>
+      <c r="C46" s="67"/>
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="62"/>
+        <v>68</v>
+      </c>
+      <c r="C47" s="68"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="63"/>
+      <c r="B48" s="69"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="64"/>
+      <c r="B49" s="70"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="64"/>
+      <c r="B50" s="70"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="64"/>
+      <c r="B51" s="70"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="64"/>
+      <c r="B52" s="70"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="64"/>
+      <c r="B53" s="70"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="64"/>
+      <c r="B54" s="70"/>
       <c r="D54" s="87"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="64"/>
+      <c r="B55" s="70"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="64"/>
+      <c r="B56" s="70"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="64"/>
+      <c r="B57" s="70"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="64"/>
+      <c r="B58" s="70"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="64"/>
+      <c r="B59" s="70"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="64"/>
+      <c r="B60" s="70"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="64"/>
+      <c r="B61" s="70"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="64"/>
+      <c r="B62" s="70"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="64"/>
+      <c r="B63" s="70"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="64"/>
+      <c r="B64" s="70"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="64"/>
+      <c r="B65" s="70"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="64"/>
+      <c r="B66" s="70"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="64"/>
+      <c r="B67" s="70"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="64"/>
+      <c r="B68" s="70"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="64"/>
+      <c r="B69" s="70"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="64"/>
+      <c r="B70" s="70"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="64"/>
+      <c r="B71" s="70"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="64"/>
+      <c r="B72" s="70"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="64"/>
+      <c r="B73" s="70"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="64"/>
+      <c r="B74" s="70"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="64"/>
+      <c r="B75" s="70"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="64"/>
+      <c r="B76" s="70"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="64"/>
+      <c r="B77" s="70"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="64"/>
+      <c r="B78" s="70"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="64"/>
+      <c r="B79" s="70"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="64"/>
+      <c r="B80" s="70"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="64"/>
+      <c r="B81" s="70"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="64"/>
+      <c r="B82" s="70"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="64"/>
+      <c r="B83" s="70"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="64"/>
+      <c r="B84" s="70"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="64"/>
+      <c r="B85" s="70"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="64"/>
+      <c r="B86" s="70"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="64"/>
+      <c r="B87" s="70"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="64"/>
+      <c r="B88" s="70"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="64"/>
+      <c r="B89" s="70"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="64"/>
+      <c r="B90" s="70"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="64"/>
+      <c r="B91" s="70"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="64"/>
+      <c r="B92" s="70"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="64"/>
+      <c r="B93" s="70"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="64"/>
+      <c r="B94" s="70"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="64"/>
+      <c r="B95" s="70"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="64"/>
+      <c r="B96" s="70"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="64"/>
+      <c r="B97" s="70"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="64"/>
+      <c r="B98" s="70"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="64"/>
+      <c r="B99" s="70"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="64"/>
+      <c r="B100" s="70"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="64"/>
+      <c r="B101" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="R1:Y1"/>
@@ -6878,6 +6919,11 @@
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="R2:Y2"/>
     <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -6897,25 +6943,25 @@
       <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.3777777777778" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.3777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="19.6222222222222" customWidth="1"/>
-    <col min="6" max="6" width="19.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="18.5037037037037" customWidth="1"/>
-    <col min="8" max="8" width="19.3777777777778" customWidth="1"/>
-    <col min="9" max="9" width="33.1259259259259" customWidth="1"/>
-    <col min="10" max="16" width="20.5259259259259" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="10" max="16" width="20.525" customWidth="1"/>
     <col min="17" max="17" width="39.4666666666667" customWidth="1"/>
-    <col min="18" max="24" width="20.5259259259259" customWidth="1"/>
-    <col min="25" max="25" width="39.1259259259259" customWidth="1"/>
-    <col min="26" max="32" width="20.5259259259259" customWidth="1"/>
+    <col min="18" max="24" width="20.525" customWidth="1"/>
+    <col min="25" max="25" width="39.125" customWidth="1"/>
+    <col min="26" max="32" width="20.525" customWidth="1"/>
     <col min="33" max="33" width="40.8" customWidth="1"/>
-    <col min="34" max="64" width="20.5259259259259" customWidth="1"/>
-    <col min="65" max="142" width="17.6222222222222" customWidth="1"/>
+    <col min="34" max="64" width="20.525" customWidth="1"/>
+    <col min="65" max="142" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41.25" customHeight="1" spans="1:33">
@@ -7232,7 +7278,7 @@
       <c r="G6" s="85"/>
       <c r="H6" s="85"/>
       <c r="I6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="90"/>
       <c r="K6" s="90"/>
@@ -7242,18 +7288,18 @@
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
       <c r="Q6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG6" s="91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A7" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
@@ -7276,7 +7322,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A8" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -7299,7 +7345,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A9" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
@@ -7309,7 +7355,7 @@
       <c r="G9" s="85"/>
       <c r="H9" s="85"/>
       <c r="I9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
@@ -7319,18 +7365,18 @@
       <c r="O9" s="90"/>
       <c r="P9" s="90"/>
       <c r="Q9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG9" s="91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A10" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
@@ -7344,7 +7390,7 @@
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
       <c r="M10" s="90"/>
-      <c r="N10" s="93"/>
+      <c r="N10" s="92"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
       <c r="Q10" s="89"/>
@@ -7353,7 +7399,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A11" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
@@ -7370,13 +7416,13 @@
       <c r="N11" s="90"/>
       <c r="O11" s="90"/>
       <c r="P11" s="90"/>
-      <c r="Q11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="AG11" s="92"/>
+      <c r="Q11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="AG11" s="93"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A12" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -7393,13 +7439,13 @@
       <c r="N12" s="90"/>
       <c r="O12" s="90"/>
       <c r="P12" s="90"/>
-      <c r="Q12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="AG12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="AG12" s="93"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A13" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="86"/>
@@ -7416,13 +7462,13 @@
       <c r="N13" s="90"/>
       <c r="O13" s="90"/>
       <c r="P13" s="90"/>
-      <c r="Q13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="AG13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="AG13" s="93"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A14" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -7439,13 +7485,13 @@
       <c r="N14" s="90"/>
       <c r="O14" s="90"/>
       <c r="P14" s="90"/>
-      <c r="Q14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="AG14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="AG14" s="93"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A15" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -7462,13 +7508,13 @@
       <c r="N15" s="90"/>
       <c r="O15" s="90"/>
       <c r="P15" s="90"/>
-      <c r="Q15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="AG15" s="92"/>
+      <c r="Q15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="AG15" s="93"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A16" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -7485,13 +7531,13 @@
       <c r="N16" s="90"/>
       <c r="O16" s="90"/>
       <c r="P16" s="90"/>
-      <c r="Q16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="AG16" s="92"/>
+      <c r="Q16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="AG16" s="93"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A17" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" s="84"/>
       <c r="C17" s="85"/>
@@ -7500,7 +7546,7 @@
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
-      <c r="I17" s="92"/>
+      <c r="I17" s="93"/>
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
       <c r="L17" s="90"/>
@@ -7508,13 +7554,13 @@
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
-      <c r="Q17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="AG17" s="92"/>
+      <c r="Q17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="AG17" s="93"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A18" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -7523,7 +7569,7 @@
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
-      <c r="I18" s="92"/>
+      <c r="I18" s="93"/>
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
       <c r="L18" s="90"/>
@@ -7531,13 +7577,13 @@
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
-      <c r="Q18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="AG18" s="92"/>
+      <c r="Q18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="AG18" s="93"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A19" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -7560,7 +7606,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A20" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -7570,7 +7616,7 @@
       <c r="G20" s="85"/>
       <c r="H20" s="85"/>
       <c r="I20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
@@ -7580,18 +7626,18 @@
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Y20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="AG20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A21" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -7614,7 +7660,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A22" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -7637,7 +7683,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A23" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
@@ -7646,7 +7692,7 @@
       <c r="F23" s="85"/>
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
-      <c r="I23" s="92"/>
+      <c r="I23" s="93"/>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
       <c r="L23" s="90"/>
@@ -7654,13 +7700,13 @@
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="AG23" s="92"/>
+      <c r="Q23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="AG23" s="93"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A24" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
@@ -7683,7 +7729,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A25" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
@@ -7693,7 +7739,7 @@
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
@@ -7703,18 +7749,18 @@
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Y25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AG25" s="91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A26" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
@@ -7737,7 +7783,7 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A27" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
@@ -7760,7 +7806,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A28" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B28" s="85"/>
       <c r="C28" s="85"/>
@@ -7783,7 +7829,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A29" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B29" s="85"/>
       <c r="C29" s="85"/>
@@ -7806,7 +7852,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A30" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="85"/>
@@ -7829,7 +7875,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A31" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="85"/>
@@ -7852,7 +7898,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A32" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
@@ -7875,7 +7921,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A33" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B33" s="85"/>
       <c r="C33" s="85"/>
@@ -7885,7 +7931,7 @@
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
       <c r="I33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
@@ -7895,18 +7941,18 @@
       <c r="O33" s="90"/>
       <c r="P33" s="90"/>
       <c r="Q33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Y33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AG33" s="91" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A34" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="85"/>
@@ -7929,7 +7975,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A35" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="85"/>
@@ -7952,7 +7998,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A36" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
@@ -7975,7 +8021,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A37" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="85"/>
@@ -7993,18 +8039,18 @@
       <c r="O37" s="90"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Y37" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AG37" s="91" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A38" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B38" s="85"/>
       <c r="C38" s="85"/>
@@ -8027,7 +8073,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A39" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B39" s="85"/>
       <c r="C39" s="85"/>
@@ -8050,7 +8096,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A40" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
@@ -8073,206 +8119,206 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="21" customHeight="1" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="58"/>
+        <v>64</v>
+      </c>
+      <c r="C43" s="64"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="59"/>
+        <v>65</v>
+      </c>
+      <c r="C44" s="65"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="60"/>
+        <v>66</v>
+      </c>
+      <c r="C45" s="66"/>
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="61"/>
+        <v>67</v>
+      </c>
+      <c r="C46" s="67"/>
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="62"/>
+        <v>68</v>
+      </c>
+      <c r="C47" s="68"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="63"/>
+      <c r="B48" s="69"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="64"/>
+      <c r="B49" s="70"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="64"/>
+      <c r="B50" s="70"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="64"/>
+      <c r="B51" s="70"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="64"/>
+      <c r="B52" s="70"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="64"/>
+      <c r="B53" s="70"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="64"/>
+      <c r="B54" s="70"/>
       <c r="D54" s="87"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="64"/>
+      <c r="B55" s="70"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="64"/>
+      <c r="B56" s="70"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="64"/>
+      <c r="B57" s="70"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="64"/>
+      <c r="B58" s="70"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="64"/>
+      <c r="B59" s="70"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="64"/>
+      <c r="B60" s="70"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="64"/>
+      <c r="B61" s="70"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="64"/>
+      <c r="B62" s="70"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="64"/>
+      <c r="B63" s="70"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="64"/>
+      <c r="B64" s="70"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="64"/>
+      <c r="B65" s="70"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="64"/>
+      <c r="B66" s="70"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="64"/>
+      <c r="B67" s="70"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="64"/>
+      <c r="B68" s="70"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="64"/>
+      <c r="B69" s="70"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="64"/>
+      <c r="B70" s="70"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="64"/>
+      <c r="B71" s="70"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="64"/>
+      <c r="B72" s="70"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="64"/>
+      <c r="B73" s="70"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="64"/>
+      <c r="B74" s="70"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="64"/>
+      <c r="B75" s="70"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="64"/>
+      <c r="B76" s="70"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="64"/>
+      <c r="B77" s="70"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="64"/>
+      <c r="B78" s="70"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="64"/>
+      <c r="B79" s="70"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="64"/>
+      <c r="B80" s="70"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="64"/>
+      <c r="B81" s="70"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="64"/>
+      <c r="B82" s="70"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="64"/>
+      <c r="B83" s="70"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="64"/>
+      <c r="B84" s="70"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="64"/>
+      <c r="B85" s="70"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="64"/>
+      <c r="B86" s="70"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="64"/>
+      <c r="B87" s="70"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="64"/>
+      <c r="B88" s="70"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="64"/>
+      <c r="B89" s="70"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="64"/>
+      <c r="B90" s="70"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="64"/>
+      <c r="B91" s="70"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="64"/>
+      <c r="B92" s="70"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="64"/>
+      <c r="B93" s="70"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="64"/>
+      <c r="B94" s="70"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="64"/>
+      <c r="B95" s="70"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="64"/>
+      <c r="B96" s="70"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="64"/>
+      <c r="B97" s="70"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="64"/>
+      <c r="B98" s="70"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="64"/>
+      <c r="B99" s="70"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="64"/>
+      <c r="B100" s="70"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="64"/>
+      <c r="B101" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8303,21 +8349,21 @@
       <selection pane="topRight" activeCell="E35" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.3777777777778" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.3777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="19.6222222222222" customWidth="1"/>
-    <col min="6" max="6" width="19.5037037037037" customWidth="1"/>
-    <col min="7" max="7" width="18.5037037037037" customWidth="1"/>
-    <col min="8" max="8" width="19.3777777777778" customWidth="1"/>
-    <col min="9" max="9" width="33.1259259259259" customWidth="1"/>
-    <col min="10" max="16" width="20.5259259259259" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="10" max="16" width="20.525" customWidth="1"/>
     <col min="17" max="17" width="39.4666666666667" customWidth="1"/>
-    <col min="18" max="64" width="20.5259259259259" customWidth="1"/>
-    <col min="65" max="142" width="17.6222222222222" customWidth="1"/>
+    <col min="18" max="64" width="20.525" customWidth="1"/>
+    <col min="65" max="142" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41.25" customHeight="1" spans="1:21">
@@ -8515,28 +8561,28 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A7" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I7" s="74">
         <v>26</v>
@@ -8552,7 +8598,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A8" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="25"/>
@@ -8562,7 +8608,7 @@
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
       <c r="I8" s="73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="76"/>
       <c r="K8" s="74"/>
@@ -8572,12 +8618,12 @@
       <c r="O8" s="74"/>
       <c r="P8" s="74"/>
       <c r="Q8" s="73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A9" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="25"/>
@@ -8587,7 +8633,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="74" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J9" s="75"/>
       <c r="K9" s="74"/>
@@ -8600,7 +8646,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A10" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -8621,21 +8667,21 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A11" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="27"/>
       <c r="D11" s="26"/>
       <c r="E11" s="22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J11" s="76"/>
       <c r="K11" s="74"/>
@@ -8645,12 +8691,12 @@
       <c r="O11" s="74"/>
       <c r="P11" s="74"/>
       <c r="Q11" s="73" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A12" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="23"/>
@@ -8660,7 +8706,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="26"/>
       <c r="I12" s="74" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J12" s="75"/>
       <c r="K12" s="74"/>
@@ -8673,7 +8719,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A13" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="29"/>
@@ -8681,9 +8727,9 @@
       <c r="E13" s="28"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="77" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J13" s="75"/>
       <c r="K13" s="74"/>
@@ -8696,17 +8742,17 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="32"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="65"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="46"/>
+      <c r="H14" s="34"/>
       <c r="I14" s="78"/>
       <c r="J14" s="75"/>
       <c r="K14" s="74"/>
@@ -8719,19 +8765,19 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="66"/>
+        <v>31</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="36"/>
       <c r="F15" s="26"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="67"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J15" s="75"/>
       <c r="K15" s="74"/>
@@ -8744,19 +8790,19 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A16" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="68" t="s">
-        <v>71</v>
+      <c r="C16" s="32"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G16" s="24"/>
-      <c r="H16" s="48"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="74"/>
       <c r="J16" s="75"/>
       <c r="K16" s="74"/>
@@ -8769,14 +8815,14 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A17" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+        <v>33</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="26"/>
       <c r="G17" s="24"/>
       <c r="H17" s="28"/>
@@ -8792,20 +8838,20 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A18" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="46"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="30" t="s">
-        <v>75</v>
+      <c r="H18" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="I18" s="74"/>
       <c r="J18" s="75"/>
@@ -8819,22 +8865,22 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="39"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="69" t="s">
-        <v>77</v>
+      <c r="H19" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="I19" s="79"/>
       <c r="J19" s="75"/>
@@ -8848,20 +8894,20 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>60</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="I20" s="79"/>
       <c r="J20" s="75"/>
@@ -8875,17 +8921,17 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A21" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="46"/>
+        <v>69</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="42"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="74"/>
       <c r="J21" s="75"/>
       <c r="K21" s="74"/>
@@ -8898,19 +8944,19 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A22" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="31"/>
+        <v>40</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="67" t="s">
-        <v>79</v>
+      <c r="E22" s="30"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="37" t="s">
+        <v>82</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J22" s="76"/>
       <c r="K22" s="74"/>
@@ -8920,26 +8966,26 @@
       <c r="O22" s="74"/>
       <c r="P22" s="74"/>
       <c r="Q22" s="73" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="37" t="s">
-        <v>60</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="67"/>
+        <v>74</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J23" s="75"/>
       <c r="K23" s="74"/>
@@ -8952,21 +8998,21 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="39" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="45" t="s">
+        <v>77</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="46"/>
+      <c r="E24" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="34"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="48"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="74" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J24" s="75"/>
       <c r="K24" s="74"/>
@@ -8979,21 +9025,21 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="48"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="30" t="s">
-        <v>60</v>
+      <c r="H25" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="I25" s="79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J25" s="75"/>
       <c r="K25" s="74"/>
@@ -9006,22 +9052,22 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="30"/>
       <c r="F26" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="46" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="J26" s="75"/>
       <c r="K26" s="74"/>
@@ -9034,21 +9080,21 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="48"/>
+        <v>46</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="39"/>
       <c r="E27" s="22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="48"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J27" s="76"/>
       <c r="K27" s="74"/>
@@ -9058,26 +9104,26 @@
       <c r="O27" s="74"/>
       <c r="P27" s="74"/>
       <c r="Q27" s="73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A28" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="24"/>
       <c r="F28" s="26"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="69" t="s">
-        <v>89</v>
+      <c r="H28" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J28" s="75"/>
       <c r="K28" s="74"/>
@@ -9090,25 +9136,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A29" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="51"/>
+        <v>48</v>
+      </c>
+      <c r="B29" s="56"/>
       <c r="C29" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>93</v>
+      <c r="F29" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="74" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J29" s="80"/>
       <c r="K29" s="74"/>
@@ -9121,21 +9167,21 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A30" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="52"/>
+        <v>49</v>
+      </c>
+      <c r="B30" s="57"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="I30" s="74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J30" s="80"/>
       <c r="K30" s="74"/>
@@ -9148,22 +9194,22 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A31" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="53" t="s">
-        <v>81</v>
+        <v>101</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="30" t="s">
-        <v>100</v>
+      <c r="F31" s="47"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="31" t="s">
+        <v>103</v>
       </c>
       <c r="I31" s="74"/>
       <c r="J31" s="80"/>
@@ -9177,15 +9223,15 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A32" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="31"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="32"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="74"/>
       <c r="J32" s="81"/>
       <c r="K32" s="74"/>
@@ -9198,20 +9244,20 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A33" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="40"/>
+        <v>52</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I33" s="74"/>
       <c r="J33" s="75"/>
@@ -9225,20 +9271,20 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A34" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="75"/>
@@ -9252,27 +9298,27 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A35" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="C35" s="43"/>
+      <c r="D35" s="59" t="s">
         <v>109</v>
       </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>112</v>
+      </c>
       <c r="I35" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J35" s="75"/>
       <c r="K35" s="74"/>
@@ -9282,22 +9328,22 @@
       <c r="O35" s="74"/>
       <c r="P35" s="74"/>
       <c r="Q35" s="73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A36" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
+        <v>56</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="82" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J36" s="75"/>
       <c r="K36" s="74"/>
@@ -9310,20 +9356,20 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A37" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="30" t="s">
-        <v>111</v>
+        <v>57</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="E37" s="28"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>113</v>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="I37" s="83"/>
       <c r="J37" s="75"/>
@@ -9337,20 +9383,20 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A38" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="31"/>
+        <v>59</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="68" t="s">
-        <v>71</v>
+        <v>87</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="I38" s="74"/>
       <c r="J38" s="75"/>
@@ -9364,22 +9410,22 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A39" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="70" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="34"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="61" t="s">
+        <v>120</v>
       </c>
       <c r="I39" s="74"/>
       <c r="J39" s="75"/>
@@ -9390,20 +9436,20 @@
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
       <c r="Q39" s="73" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A40" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="70"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="61"/>
       <c r="I40" s="74"/>
       <c r="J40" s="75"/>
       <c r="K40" s="74"/>
@@ -9416,12 +9462,12 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B41" s="2">
         <v>0.5</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="62">
         <v>4</v>
       </c>
       <c r="D41" s="2">
@@ -9446,12 +9492,12 @@
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="63">
         <v>0.5</v>
       </c>
       <c r="D42" s="3">
@@ -9476,12 +9522,12 @@
     </row>
     <row r="43" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B43" s="4">
         <v>4</v>
       </c>
-      <c r="C43" s="58">
+      <c r="C43" s="64">
         <v>1</v>
       </c>
       <c r="D43" s="4">
@@ -9506,12 +9552,12 @@
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A44" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B44" s="5">
         <v>6.5</v>
       </c>
-      <c r="C44" s="59">
+      <c r="C44" s="65">
         <v>7</v>
       </c>
       <c r="D44" s="5">
@@ -9536,12 +9582,12 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B45" s="6">
         <v>4.5</v>
       </c>
-      <c r="C45" s="60">
+      <c r="C45" s="66">
         <v>3</v>
       </c>
       <c r="D45" s="6">
@@ -9566,12 +9612,12 @@
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A46" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B46" s="7">
         <v>1.5</v>
       </c>
-      <c r="C46" s="61">
+      <c r="C46" s="67">
         <v>1.5</v>
       </c>
       <c r="D46" s="7">
@@ -9596,12 +9642,12 @@
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B47" s="8">
         <v>0</v>
       </c>
-      <c r="C47" s="62">
+      <c r="C47" s="68">
         <v>0</v>
       </c>
       <c r="D47" s="8">
@@ -9625,166 +9671,166 @@
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="63"/>
+      <c r="B48" s="69"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="64"/>
+      <c r="B49" s="70"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="64"/>
+      <c r="B50" s="70"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="64"/>
+      <c r="B51" s="70"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="64"/>
+      <c r="B52" s="70"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="64"/>
+      <c r="B53" s="70"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="64"/>
+      <c r="B54" s="70"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="64"/>
+      <c r="B55" s="70"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="64"/>
+      <c r="B56" s="70"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="64"/>
+      <c r="B57" s="70"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="64"/>
+      <c r="B58" s="70"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="64"/>
+      <c r="B59" s="70"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="64"/>
+      <c r="B60" s="70"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="64"/>
+      <c r="B61" s="70"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="64"/>
+      <c r="B62" s="70"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="64"/>
+      <c r="B63" s="70"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="64"/>
+      <c r="B64" s="70"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="64"/>
+      <c r="B65" s="70"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="64"/>
+      <c r="B66" s="70"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="64"/>
+      <c r="B67" s="70"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="64"/>
+      <c r="B68" s="70"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="64"/>
+      <c r="B69" s="70"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="64"/>
+      <c r="B70" s="70"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="64"/>
+      <c r="B71" s="70"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="64"/>
+      <c r="B72" s="70"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="64"/>
+      <c r="B73" s="70"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="64"/>
+      <c r="B74" s="70"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="64"/>
+      <c r="B75" s="70"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="64"/>
+      <c r="B76" s="70"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="64"/>
+      <c r="B77" s="70"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="64"/>
+      <c r="B78" s="70"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="64"/>
+      <c r="B79" s="70"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="64"/>
+      <c r="B80" s="70"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="64"/>
+      <c r="B81" s="70"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="64"/>
+      <c r="B82" s="70"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="64"/>
+      <c r="B83" s="70"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="64"/>
+      <c r="B84" s="70"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="64"/>
+      <c r="B85" s="70"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="64"/>
+      <c r="B86" s="70"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="64"/>
+      <c r="B87" s="70"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="64"/>
+      <c r="B88" s="70"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="64"/>
+      <c r="B89" s="70"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="64"/>
+      <c r="B90" s="70"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="64"/>
+      <c r="B91" s="70"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="64"/>
+      <c r="B92" s="70"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="64"/>
+      <c r="B93" s="70"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="64"/>
+      <c r="B94" s="70"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="64"/>
+      <c r="B95" s="70"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="64"/>
+      <c r="B96" s="70"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="64"/>
+      <c r="B97" s="70"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="64"/>
+      <c r="B98" s="70"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="64"/>
+      <c r="B99" s="70"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="64"/>
+      <c r="B100" s="70"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="64"/>
+      <c r="B101" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/34枚金币时间管理法2107.xlsx
+++ b/34枚金币时间管理法2107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="27285" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="7月" sheetId="6" r:id="rId1"/>
@@ -386,9 +386,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -447,52 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,29 +455,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +469,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,16 +490,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -577,14 +532,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,7 +659,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,109 +761,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,25 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,19 +803,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,10 +956,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -983,23 +1039,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,49 +1048,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,148 +1058,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,24 +1294,114 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1321,102 +1411,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1480,10 +1480,10 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1507,54 +1507,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5141,8 +5141,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7884160" y="12578080"/>
-        <a:ext cx="5671820" cy="2776220"/>
+        <a:off x="8785860" y="12616180"/>
+        <a:ext cx="6219190" cy="3385820"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5176,8 +5176,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7884160" y="12578080"/>
-        <a:ext cx="5671820" cy="2776220"/>
+        <a:off x="8785860" y="12616180"/>
+        <a:ext cx="6219190" cy="3385820"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5211,8 +5211,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7640955" y="12428220"/>
-        <a:ext cx="6724015" cy="4756785"/>
+        <a:off x="8542655" y="12428220"/>
+        <a:ext cx="7586980" cy="5785485"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5512,31 +5512,31 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D30" sqref="D30"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="33.125" customWidth="1"/>
-    <col min="10" max="16" width="20.525" customWidth="1"/>
+    <col min="2" max="2" width="21.3777777777778" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.3777777777778" customWidth="1"/>
+    <col min="4" max="4" width="20.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="19.6222222222222" customWidth="1"/>
+    <col min="6" max="6" width="19.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.5037037037037" customWidth="1"/>
+    <col min="8" max="8" width="19.3777777777778" customWidth="1"/>
+    <col min="9" max="9" width="33.1259259259259" customWidth="1"/>
+    <col min="10" max="16" width="20.5259259259259" customWidth="1"/>
     <col min="17" max="17" width="39.4666666666667" customWidth="1"/>
-    <col min="18" max="24" width="20.525" customWidth="1"/>
-    <col min="25" max="25" width="39.125" customWidth="1"/>
-    <col min="26" max="32" width="20.525" customWidth="1"/>
+    <col min="18" max="24" width="20.5259259259259" customWidth="1"/>
+    <col min="25" max="25" width="39.1259259259259" customWidth="1"/>
+    <col min="26" max="32" width="20.5259259259259" customWidth="1"/>
     <col min="33" max="33" width="40.8" customWidth="1"/>
-    <col min="34" max="64" width="20.525" customWidth="1"/>
-    <col min="65" max="142" width="17.625" customWidth="1"/>
+    <col min="34" max="64" width="20.5259259259259" customWidth="1"/>
+    <col min="65" max="142" width="17.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41.25" customHeight="1" spans="1:33">
@@ -5971,7 +5971,7 @@
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
       <c r="M10" s="90"/>
-      <c r="N10" s="92"/>
+      <c r="N10" s="93"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
       <c r="Q10" s="89"/>
@@ -5999,9 +5999,9 @@
       <c r="N11" s="90"/>
       <c r="O11" s="90"/>
       <c r="P11" s="90"/>
-      <c r="Q11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="AG11" s="93"/>
+      <c r="Q11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="AG11" s="92"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A12" s="16" t="s">
@@ -6022,9 +6022,9 @@
       <c r="N12" s="90"/>
       <c r="O12" s="90"/>
       <c r="P12" s="90"/>
-      <c r="Q12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="AG12" s="93"/>
+      <c r="Q12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="AG12" s="92"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A13" s="16" t="s">
@@ -6045,9 +6045,9 @@
       <c r="N13" s="90"/>
       <c r="O13" s="90"/>
       <c r="P13" s="90"/>
-      <c r="Q13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="AG13" s="93"/>
+      <c r="Q13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="AG13" s="92"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A14" s="16" t="s">
@@ -6068,9 +6068,9 @@
       <c r="N14" s="90"/>
       <c r="O14" s="90"/>
       <c r="P14" s="90"/>
-      <c r="Q14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="AG14" s="93"/>
+      <c r="Q14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="AG14" s="92"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A15" s="16" t="s">
@@ -6091,9 +6091,9 @@
       <c r="N15" s="90"/>
       <c r="O15" s="90"/>
       <c r="P15" s="90"/>
-      <c r="Q15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="AG15" s="93"/>
+      <c r="Q15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="AG15" s="92"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A16" s="16" t="s">
@@ -6114,9 +6114,9 @@
       <c r="N16" s="90"/>
       <c r="O16" s="90"/>
       <c r="P16" s="90"/>
-      <c r="Q16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="AG16" s="93"/>
+      <c r="Q16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="AG16" s="92"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A17" s="16" t="s">
@@ -6131,7 +6131,7 @@
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
-      <c r="I17" s="93"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
       <c r="L17" s="90"/>
@@ -6139,9 +6139,9 @@
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
-      <c r="Q17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="AG17" s="93"/>
+      <c r="Q17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="AG17" s="92"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A18" s="16" t="s">
@@ -6154,7 +6154,7 @@
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
-      <c r="I18" s="93"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
       <c r="L18" s="90"/>
@@ -6162,9 +6162,9 @@
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
-      <c r="Q18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="AG18" s="93"/>
+      <c r="Q18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="AG18" s="92"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A19" s="16" t="s">
@@ -6279,7 +6279,7 @@
       <c r="F23" s="85"/>
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
-      <c r="I23" s="93"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
       <c r="L23" s="90"/>
@@ -6287,9 +6287,9 @@
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="AG23" s="93"/>
+      <c r="Q23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="AG23" s="92"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A24" s="16" t="s">
@@ -6489,7 +6489,7 @@
       <c r="A32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="85"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
       <c r="E32" s="85"/>
@@ -6512,7 +6512,7 @@
       <c r="A33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="85"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="85"/>
       <c r="D33" s="85"/>
       <c r="E33" s="85"/>
@@ -6543,7 +6543,7 @@
       <c r="A34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="85"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="85"/>
       <c r="D34" s="85"/>
       <c r="E34" s="85"/>
@@ -6566,7 +6566,7 @@
       <c r="A35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="85"/>
       <c r="D35" s="85"/>
       <c r="E35" s="85"/>
@@ -6589,7 +6589,7 @@
       <c r="A36" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="85"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="85"/>
       <c r="D36" s="85"/>
       <c r="E36" s="85"/>
@@ -6720,194 +6720,194 @@
       <c r="A43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="58"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="59"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="60"/>
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="68"/>
+      <c r="C47" s="62"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="69"/>
+      <c r="B48" s="63"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="70"/>
+      <c r="B49" s="64"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="70"/>
+      <c r="B50" s="64"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="70"/>
+      <c r="B51" s="64"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="70"/>
+      <c r="B52" s="64"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="70"/>
+      <c r="B53" s="64"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="70"/>
+      <c r="B54" s="64"/>
       <c r="D54" s="87"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="70"/>
+      <c r="B55" s="64"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="70"/>
+      <c r="B56" s="64"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="70"/>
+      <c r="B57" s="64"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="70"/>
+      <c r="B58" s="64"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="70"/>
+      <c r="B59" s="64"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="70"/>
+      <c r="B60" s="64"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="70"/>
+      <c r="B61" s="64"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="70"/>
+      <c r="B62" s="64"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="70"/>
+      <c r="B63" s="64"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="70"/>
+      <c r="B64" s="64"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="70"/>
+      <c r="B65" s="64"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="70"/>
+      <c r="B66" s="64"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="70"/>
+      <c r="B67" s="64"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="70"/>
+      <c r="B68" s="64"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="70"/>
+      <c r="B69" s="64"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="70"/>
+      <c r="B70" s="64"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="70"/>
+      <c r="B71" s="64"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="70"/>
+      <c r="B72" s="64"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="70"/>
+      <c r="B73" s="64"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="70"/>
+      <c r="B74" s="64"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="70"/>
+      <c r="B75" s="64"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="70"/>
+      <c r="B76" s="64"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="70"/>
+      <c r="B77" s="64"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="70"/>
+      <c r="B78" s="64"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="70"/>
+      <c r="B79" s="64"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="70"/>
+      <c r="B80" s="64"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="70"/>
+      <c r="B81" s="64"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="70"/>
+      <c r="B82" s="64"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="70"/>
+      <c r="B83" s="64"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="70"/>
+      <c r="B84" s="64"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="70"/>
+      <c r="B85" s="64"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="70"/>
+      <c r="B86" s="64"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="70"/>
+      <c r="B87" s="64"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="70"/>
+      <c r="B88" s="64"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="70"/>
+      <c r="B89" s="64"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="70"/>
+      <c r="B90" s="64"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="70"/>
+      <c r="B91" s="64"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="70"/>
+      <c r="B92" s="64"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="70"/>
+      <c r="B93" s="64"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="70"/>
+      <c r="B94" s="64"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="70"/>
+      <c r="B95" s="64"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="70"/>
+      <c r="B96" s="64"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="70"/>
+      <c r="B97" s="64"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="70"/>
+      <c r="B98" s="64"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="70"/>
+      <c r="B99" s="64"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="70"/>
+      <c r="B100" s="64"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="70"/>
+      <c r="B101" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6943,25 +6943,25 @@
       <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="33.125" customWidth="1"/>
-    <col min="10" max="16" width="20.525" customWidth="1"/>
+    <col min="2" max="2" width="21.3777777777778" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.3777777777778" customWidth="1"/>
+    <col min="4" max="4" width="20.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="19.6222222222222" customWidth="1"/>
+    <col min="6" max="6" width="19.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.5037037037037" customWidth="1"/>
+    <col min="8" max="8" width="19.3777777777778" customWidth="1"/>
+    <col min="9" max="9" width="33.1259259259259" customWidth="1"/>
+    <col min="10" max="16" width="20.5259259259259" customWidth="1"/>
     <col min="17" max="17" width="39.4666666666667" customWidth="1"/>
-    <col min="18" max="24" width="20.525" customWidth="1"/>
-    <col min="25" max="25" width="39.125" customWidth="1"/>
-    <col min="26" max="32" width="20.525" customWidth="1"/>
+    <col min="18" max="24" width="20.5259259259259" customWidth="1"/>
+    <col min="25" max="25" width="39.1259259259259" customWidth="1"/>
+    <col min="26" max="32" width="20.5259259259259" customWidth="1"/>
     <col min="33" max="33" width="40.8" customWidth="1"/>
-    <col min="34" max="64" width="20.525" customWidth="1"/>
-    <col min="65" max="142" width="17.625" customWidth="1"/>
+    <col min="34" max="64" width="20.5259259259259" customWidth="1"/>
+    <col min="65" max="142" width="17.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41.25" customHeight="1" spans="1:33">
@@ -7390,7 +7390,7 @@
       <c r="K10" s="90"/>
       <c r="L10" s="90"/>
       <c r="M10" s="90"/>
-      <c r="N10" s="92"/>
+      <c r="N10" s="93"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
       <c r="Q10" s="89"/>
@@ -7416,9 +7416,9 @@
       <c r="N11" s="90"/>
       <c r="O11" s="90"/>
       <c r="P11" s="90"/>
-      <c r="Q11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="AG11" s="93"/>
+      <c r="Q11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="AG11" s="92"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A12" s="16" t="s">
@@ -7439,9 +7439,9 @@
       <c r="N12" s="90"/>
       <c r="O12" s="90"/>
       <c r="P12" s="90"/>
-      <c r="Q12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="AG12" s="93"/>
+      <c r="Q12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="AG12" s="92"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A13" s="16" t="s">
@@ -7462,9 +7462,9 @@
       <c r="N13" s="90"/>
       <c r="O13" s="90"/>
       <c r="P13" s="90"/>
-      <c r="Q13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="AG13" s="93"/>
+      <c r="Q13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="AG13" s="92"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A14" s="16" t="s">
@@ -7485,9 +7485,9 @@
       <c r="N14" s="90"/>
       <c r="O14" s="90"/>
       <c r="P14" s="90"/>
-      <c r="Q14" s="93"/>
-      <c r="Y14" s="93"/>
-      <c r="AG14" s="93"/>
+      <c r="Q14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="AG14" s="92"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A15" s="16" t="s">
@@ -7508,9 +7508,9 @@
       <c r="N15" s="90"/>
       <c r="O15" s="90"/>
       <c r="P15" s="90"/>
-      <c r="Q15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="AG15" s="93"/>
+      <c r="Q15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="AG15" s="92"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A16" s="16" t="s">
@@ -7531,9 +7531,9 @@
       <c r="N16" s="90"/>
       <c r="O16" s="90"/>
       <c r="P16" s="90"/>
-      <c r="Q16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="AG16" s="93"/>
+      <c r="Q16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="AG16" s="92"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A17" s="16" t="s">
@@ -7546,7 +7546,7 @@
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
       <c r="H17" s="85"/>
-      <c r="I17" s="93"/>
+      <c r="I17" s="92"/>
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
       <c r="L17" s="90"/>
@@ -7554,9 +7554,9 @@
       <c r="N17" s="90"/>
       <c r="O17" s="90"/>
       <c r="P17" s="90"/>
-      <c r="Q17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="AG17" s="93"/>
+      <c r="Q17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="AG17" s="92"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A18" s="16" t="s">
@@ -7569,7 +7569,7 @@
       <c r="F18" s="85"/>
       <c r="G18" s="85"/>
       <c r="H18" s="85"/>
-      <c r="I18" s="93"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
       <c r="L18" s="90"/>
@@ -7577,9 +7577,9 @@
       <c r="N18" s="90"/>
       <c r="O18" s="90"/>
       <c r="P18" s="90"/>
-      <c r="Q18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="AG18" s="93"/>
+      <c r="Q18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="AG18" s="92"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A19" s="16" t="s">
@@ -7692,7 +7692,7 @@
       <c r="F23" s="85"/>
       <c r="G23" s="85"/>
       <c r="H23" s="85"/>
-      <c r="I23" s="93"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
       <c r="L23" s="90"/>
@@ -7700,9 +7700,9 @@
       <c r="N23" s="90"/>
       <c r="O23" s="90"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="AG23" s="93"/>
+      <c r="Q23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="AG23" s="92"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A24" s="16" t="s">
@@ -8131,194 +8131,194 @@
       <c r="A43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="64"/>
+      <c r="C43" s="58"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="65"/>
+      <c r="C44" s="59"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="60"/>
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="67"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="68"/>
+      <c r="C47" s="62"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="69"/>
+      <c r="B48" s="63"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="70"/>
+      <c r="B49" s="64"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="70"/>
+      <c r="B50" s="64"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="70"/>
+      <c r="B51" s="64"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="70"/>
+      <c r="B52" s="64"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="70"/>
+      <c r="B53" s="64"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="70"/>
+      <c r="B54" s="64"/>
       <c r="D54" s="87"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="70"/>
+      <c r="B55" s="64"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="70"/>
+      <c r="B56" s="64"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="70"/>
+      <c r="B57" s="64"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="70"/>
+      <c r="B58" s="64"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="70"/>
+      <c r="B59" s="64"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="70"/>
+      <c r="B60" s="64"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="70"/>
+      <c r="B61" s="64"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="70"/>
+      <c r="B62" s="64"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="70"/>
+      <c r="B63" s="64"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="70"/>
+      <c r="B64" s="64"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="70"/>
+      <c r="B65" s="64"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="70"/>
+      <c r="B66" s="64"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="70"/>
+      <c r="B67" s="64"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="70"/>
+      <c r="B68" s="64"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="70"/>
+      <c r="B69" s="64"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="70"/>
+      <c r="B70" s="64"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="70"/>
+      <c r="B71" s="64"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="70"/>
+      <c r="B72" s="64"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="70"/>
+      <c r="B73" s="64"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="70"/>
+      <c r="B74" s="64"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="70"/>
+      <c r="B75" s="64"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="70"/>
+      <c r="B76" s="64"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="70"/>
+      <c r="B77" s="64"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="70"/>
+      <c r="B78" s="64"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="70"/>
+      <c r="B79" s="64"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="70"/>
+      <c r="B80" s="64"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="70"/>
+      <c r="B81" s="64"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="70"/>
+      <c r="B82" s="64"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="70"/>
+      <c r="B83" s="64"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="70"/>
+      <c r="B84" s="64"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="70"/>
+      <c r="B85" s="64"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="70"/>
+      <c r="B86" s="64"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="70"/>
+      <c r="B87" s="64"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="70"/>
+      <c r="B88" s="64"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="70"/>
+      <c r="B89" s="64"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="70"/>
+      <c r="B90" s="64"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="70"/>
+      <c r="B91" s="64"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="70"/>
+      <c r="B92" s="64"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="70"/>
+      <c r="B93" s="64"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="70"/>
+      <c r="B94" s="64"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="70"/>
+      <c r="B95" s="64"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="70"/>
+      <c r="B96" s="64"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="70"/>
+      <c r="B97" s="64"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="70"/>
+      <c r="B98" s="64"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="70"/>
+      <c r="B99" s="64"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="70"/>
+      <c r="B100" s="64"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="70"/>
+      <c r="B101" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8349,21 +8349,21 @@
       <selection pane="topRight" activeCell="E35" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="33.125" customWidth="1"/>
-    <col min="10" max="16" width="20.525" customWidth="1"/>
+    <col min="2" max="2" width="21.3777777777778" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.3777777777778" customWidth="1"/>
+    <col min="4" max="4" width="20.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="19.6222222222222" customWidth="1"/>
+    <col min="6" max="6" width="19.5037037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.5037037037037" customWidth="1"/>
+    <col min="8" max="8" width="19.3777777777778" customWidth="1"/>
+    <col min="9" max="9" width="33.1259259259259" customWidth="1"/>
+    <col min="10" max="16" width="20.5259259259259" customWidth="1"/>
     <col min="17" max="17" width="39.4666666666667" customWidth="1"/>
-    <col min="18" max="64" width="20.525" customWidth="1"/>
-    <col min="65" max="142" width="17.625" customWidth="1"/>
+    <col min="18" max="64" width="20.5259259259259" customWidth="1"/>
+    <col min="65" max="142" width="17.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41.25" customHeight="1" spans="1:21">
@@ -8727,7 +8727,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="77" t="s">
         <v>73</v>
       </c>
@@ -8744,15 +8744,15 @@
       <c r="A14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="32"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="33"/>
+      <c r="E14" s="65"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="H14" s="34"/>
+      <c r="H14" s="46"/>
       <c r="I14" s="78"/>
       <c r="J14" s="75"/>
       <c r="K14" s="74"/>
@@ -8767,15 +8767,15 @@
       <c r="A15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="31" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="26"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="37"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="75" t="s">
         <v>74</v>
       </c>
@@ -8793,16 +8793,16 @@
         <v>32</v>
       </c>
       <c r="B16" s="28"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="38" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="68" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="24"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="48"/>
       <c r="I16" s="74"/>
       <c r="J16" s="75"/>
       <c r="K16" s="74"/>
@@ -8817,12 +8817,12 @@
       <c r="A17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="26"/>
       <c r="G17" s="24"/>
       <c r="H17" s="28"/>
@@ -8840,17 +8840,17 @@
       <c r="A18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="34"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="30" t="s">
         <v>78</v>
       </c>
       <c r="I18" s="74"/>
@@ -8867,19 +8867,19 @@
       <c r="A19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="69" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="79"/>
@@ -8896,17 +8896,17 @@
       <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="30" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="79"/>
@@ -8923,15 +8923,15 @@
       <c r="A21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="49"/>
+      <c r="H21" s="42"/>
       <c r="I21" s="74"/>
       <c r="J21" s="75"/>
       <c r="K21" s="74"/>
@@ -8946,13 +8946,13 @@
       <c r="A22" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="37" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="67" t="s">
         <v>82</v>
       </c>
       <c r="I22" s="73" t="s">
@@ -8973,8 +8973,8 @@
       <c r="A23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="43" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="37" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="24"/>
@@ -8982,8 +8982,8 @@
       <c r="F23" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="74" t="s">
         <v>83</v>
       </c>
@@ -9000,17 +9000,17 @@
       <c r="A24" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="45" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="39" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="26"/>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="74" t="s">
         <v>84</v>
       </c>
@@ -9027,15 +9027,15 @@
       <c r="A25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="28"/>
-      <c r="F25" s="39"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="30" t="s">
         <v>65</v>
       </c>
       <c r="I25" s="79" t="s">
@@ -9054,19 +9054,19 @@
       <c r="A26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="34" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="32"/>
       <c r="F26" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="46" t="s">
         <v>89</v>
       </c>
       <c r="J26" s="75"/>
@@ -9082,17 +9082,17 @@
       <c r="A27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="22" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="73" t="s">
         <v>44</v>
       </c>
@@ -9111,15 +9111,15 @@
       <c r="A28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="24"/>
       <c r="F28" s="26"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="69" t="s">
         <v>92</v>
       </c>
       <c r="I28" s="74" t="s">
@@ -9138,18 +9138,18 @@
       <c r="A29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="46" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>96</v>
       </c>
       <c r="H29" s="28"/>
@@ -9169,15 +9169,15 @@
       <c r="A30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="57"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="27"/>
-      <c r="D30" s="39"/>
+      <c r="D30" s="48"/>
       <c r="E30" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="31" t="s">
+      <c r="F30" s="38"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="30" t="s">
         <v>99</v>
       </c>
       <c r="I30" s="74" t="s">
@@ -9199,16 +9199,16 @@
       <c r="B31" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="53" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>102</v>
       </c>
       <c r="E31" s="24"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="31" t="s">
+      <c r="F31" s="40"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="30" t="s">
         <v>103</v>
       </c>
       <c r="I31" s="74"/>
@@ -9226,12 +9226,12 @@
         <v>51</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="32"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="30"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="74"/>
       <c r="J32" s="81"/>
       <c r="K32" s="74"/>
@@ -9246,16 +9246,16 @@
       <c r="A33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="47"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="28" t="s">
         <v>104</v>
       </c>
@@ -9273,17 +9273,17 @@
       <c r="A34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="30" t="s">
         <v>107</v>
       </c>
       <c r="I34" s="74"/>
@@ -9300,21 +9300,21 @@
       <c r="A35" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="59" t="s">
+      <c r="C35" s="37"/>
+      <c r="D35" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="59" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="54" t="s">
         <v>112</v>
       </c>
       <c r="I35" s="73" t="s">
@@ -9335,13 +9335,13 @@
       <c r="A36" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
       <c r="I36" s="82" t="s">
         <v>113</v>
       </c>
@@ -9358,17 +9358,17 @@
       <c r="A37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="31" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="30" t="s">
         <v>114</v>
       </c>
       <c r="E37" s="28"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31" t="s">
+      <c r="F37" s="32"/>
+      <c r="G37" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>116</v>
       </c>
       <c r="I37" s="83"/>
@@ -9385,17 +9385,17 @@
       <c r="A38" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="31"/>
       <c r="D38" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="38" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="68" t="s">
         <v>75</v>
       </c>
       <c r="I38" s="74"/>
@@ -9415,16 +9415,16 @@
       <c r="B39" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="61" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="70" t="s">
         <v>120</v>
       </c>
       <c r="I39" s="74"/>
@@ -9444,12 +9444,12 @@
         <v>61</v>
       </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="61"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="70"/>
       <c r="I40" s="74"/>
       <c r="J40" s="75"/>
       <c r="K40" s="74"/>
@@ -9467,7 +9467,7 @@
       <c r="B41" s="2">
         <v>0.5</v>
       </c>
-      <c r="C41" s="62">
+      <c r="C41" s="56">
         <v>4</v>
       </c>
       <c r="D41" s="2">
@@ -9497,7 +9497,7 @@
       <c r="B42" s="3">
         <v>0</v>
       </c>
-      <c r="C42" s="63">
+      <c r="C42" s="57">
         <v>0.5</v>
       </c>
       <c r="D42" s="3">
@@ -9527,7 +9527,7 @@
       <c r="B43" s="4">
         <v>4</v>
       </c>
-      <c r="C43" s="64">
+      <c r="C43" s="58">
         <v>1</v>
       </c>
       <c r="D43" s="4">
@@ -9557,7 +9557,7 @@
       <c r="B44" s="5">
         <v>6.5</v>
       </c>
-      <c r="C44" s="65">
+      <c r="C44" s="59">
         <v>7</v>
       </c>
       <c r="D44" s="5">
@@ -9587,7 +9587,7 @@
       <c r="B45" s="6">
         <v>4.5</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="60">
         <v>3</v>
       </c>
       <c r="D45" s="6">
@@ -9617,7 +9617,7 @@
       <c r="B46" s="7">
         <v>1.5</v>
       </c>
-      <c r="C46" s="67">
+      <c r="C46" s="61">
         <v>1.5</v>
       </c>
       <c r="D46" s="7">
@@ -9647,7 +9647,7 @@
       <c r="B47" s="8">
         <v>0</v>
       </c>
-      <c r="C47" s="68">
+      <c r="C47" s="62">
         <v>0</v>
       </c>
       <c r="D47" s="8">
@@ -9671,166 +9671,166 @@
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="69"/>
+      <c r="B48" s="63"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="70"/>
+      <c r="B49" s="64"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="70"/>
+      <c r="B50" s="64"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="70"/>
+      <c r="B51" s="64"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="70"/>
+      <c r="B52" s="64"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="70"/>
+      <c r="B53" s="64"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="70"/>
+      <c r="B54" s="64"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="70"/>
+      <c r="B55" s="64"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="70"/>
+      <c r="B56" s="64"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="70"/>
+      <c r="B57" s="64"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="70"/>
+      <c r="B58" s="64"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="70"/>
+      <c r="B59" s="64"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="70"/>
+      <c r="B60" s="64"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="70"/>
+      <c r="B61" s="64"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="70"/>
+      <c r="B62" s="64"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="70"/>
+      <c r="B63" s="64"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="70"/>
+      <c r="B64" s="64"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="70"/>
+      <c r="B65" s="64"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="70"/>
+      <c r="B66" s="64"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="70"/>
+      <c r="B67" s="64"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="70"/>
+      <c r="B68" s="64"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="70"/>
+      <c r="B69" s="64"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="70"/>
+      <c r="B70" s="64"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="70"/>
+      <c r="B71" s="64"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="70"/>
+      <c r="B72" s="64"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="70"/>
+      <c r="B73" s="64"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="70"/>
+      <c r="B74" s="64"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="70"/>
+      <c r="B75" s="64"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="70"/>
+      <c r="B76" s="64"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="70"/>
+      <c r="B77" s="64"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="70"/>
+      <c r="B78" s="64"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="70"/>
+      <c r="B79" s="64"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="70"/>
+      <c r="B80" s="64"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="70"/>
+      <c r="B81" s="64"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="70"/>
+      <c r="B82" s="64"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="70"/>
+      <c r="B83" s="64"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="70"/>
+      <c r="B84" s="64"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="70"/>
+      <c r="B85" s="64"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="70"/>
+      <c r="B86" s="64"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="70"/>
+      <c r="B87" s="64"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="70"/>
+      <c r="B88" s="64"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="70"/>
+      <c r="B89" s="64"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="70"/>
+      <c r="B90" s="64"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="70"/>
+      <c r="B91" s="64"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="70"/>
+      <c r="B92" s="64"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="70"/>
+      <c r="B93" s="64"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="70"/>
+      <c r="B94" s="64"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="70"/>
+      <c r="B95" s="64"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="70"/>
+      <c r="B96" s="64"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="70"/>
+      <c r="B97" s="64"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="70"/>
+      <c r="B98" s="64"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="70"/>
+      <c r="B99" s="64"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="70"/>
+      <c r="B100" s="64"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="70"/>
+      <c r="B101" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="49">

--- a/34枚金币时间管理法2107.xlsx
+++ b/34枚金币时间管理法2107.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="123">
   <si>
     <t>34枚金币时间管理法</t>
   </si>
@@ -96,6 +96,9 @@
     <t>8:30-9:00</t>
   </si>
   <si>
+    <t>买菜做饭</t>
+  </si>
+  <si>
     <t>9:00-9:30</t>
   </si>
   <si>
@@ -111,6 +114,9 @@
     <t>10:30-11:00</t>
   </si>
   <si>
+    <t>午饭</t>
+  </si>
+  <si>
     <t>11:00-11:30</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>12:00-12:30</t>
   </si>
   <si>
+    <t>午休</t>
+  </si>
+  <si>
     <t>12:30-13:00</t>
   </si>
   <si>
@@ -129,9 +138,6 @@
     <t>13:30-14:00</t>
   </si>
   <si>
-    <t>午休</t>
-  </si>
-  <si>
     <t>本周做得最有意义的工作</t>
   </si>
   <si>
@@ -141,6 +147,9 @@
     <t>14:30-15:00</t>
   </si>
   <si>
+    <t>卫生</t>
+  </si>
+  <si>
     <t>15:00-15:30</t>
   </si>
   <si>
@@ -250,9 +259,6 @@
   </si>
   <si>
     <t>看综艺</t>
-  </si>
-  <si>
-    <t>午饭</t>
   </si>
   <si>
     <t xml:space="preserve"> 午饭</t>
@@ -386,9 +392,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -447,7 +453,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,30 +466,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -498,19 +489,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,9 +528,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,7 +552,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,38 +560,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,13 +665,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +773,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +803,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,133 +833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,6 +962,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -973,8 +1036,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -994,216 +1059,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,6 +1508,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5512,10 +5536,10 @@
   <sheetPr/>
   <dimension ref="A1:AG101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B35" sqref="B35:B36"/>
+      <selection pane="topRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5823,12 +5847,12 @@
         <v>15</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="89"/>
       <c r="J5" s="90"/>
       <c r="K5" s="90"/>
@@ -5848,12 +5872,16 @@
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="91" t="s">
         <v>18</v>
       </c>
@@ -5881,12 +5909,20 @@
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="89"/>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
@@ -5906,12 +5942,20 @@
       <c r="B8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
+      <c r="C8" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="89"/>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
@@ -5929,12 +5973,12 @@
         <v>23</v>
       </c>
       <c r="B9" s="95"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="91" t="s">
         <v>24</v>
       </c>
@@ -5960,12 +6004,14 @@
         <v>25</v>
       </c>
       <c r="B10" s="96"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="5"/>
       <c r="I10" s="89"/>
       <c r="J10" s="90"/>
       <c r="K10" s="90"/>
@@ -5980,17 +6026,25 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="101"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="89"/>
       <c r="J11" s="90"/>
       <c r="K11" s="90"/>
@@ -6005,15 +6059,15 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="97"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="89"/>
       <c r="J12" s="90"/>
       <c r="K12" s="90"/>
@@ -6028,15 +6082,17 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="98"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I13" s="89"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
@@ -6051,15 +6107,17 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A14" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="98"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="102" t="s">
+        <v>32</v>
+      </c>
       <c r="I14" s="89"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
@@ -6074,15 +6132,15 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="98"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="89"/>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
@@ -6097,15 +6155,15 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A16" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="99"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
       <c r="I16" s="89"/>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
@@ -6120,17 +6178,29 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A17" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I17" s="92"/>
       <c r="J17" s="90"/>
       <c r="K17" s="90"/>
@@ -6145,15 +6215,19 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A18" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I18" s="92"/>
       <c r="J18" s="90"/>
       <c r="K18" s="90"/>
@@ -6168,15 +6242,19 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A19" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I19" s="89"/>
       <c r="J19" s="90"/>
       <c r="K19" s="90"/>
@@ -6191,19 +6269,31 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
@@ -6213,26 +6303,28 @@
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A21" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="97"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="I21" s="89"/>
       <c r="J21" s="90"/>
       <c r="K21" s="90"/>
@@ -6247,15 +6339,17 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A22" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="98"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="I22" s="89"/>
       <c r="J22" s="90"/>
       <c r="K22" s="90"/>
@@ -6270,15 +6364,15 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A23" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="98"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="92"/>
       <c r="J23" s="90"/>
       <c r="K23" s="90"/>
@@ -6293,15 +6387,15 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A24" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="98"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="89"/>
       <c r="J24" s="90"/>
       <c r="K24" s="90"/>
@@ -6316,17 +6410,17 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A25" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B25" s="98"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
@@ -6336,26 +6430,26 @@
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A26" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" s="98"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="89"/>
       <c r="J26" s="90"/>
       <c r="K26" s="90"/>
@@ -6370,15 +6464,15 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A27" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" s="99"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="89"/>
       <c r="J27" s="90"/>
       <c r="K27" s="90"/>
@@ -6393,17 +6487,27 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A28" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
+        <v>28</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="94" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="4"/>
       <c r="I28" s="89"/>
       <c r="J28" s="90"/>
       <c r="K28" s="90"/>
@@ -6418,15 +6522,15 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A29" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29" s="96"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="89"/>
       <c r="J29" s="90"/>
       <c r="K29" s="90"/>
@@ -6441,15 +6545,15 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A30" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B30" s="97"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="89"/>
       <c r="J30" s="90"/>
       <c r="K30" s="90"/>
@@ -6464,15 +6568,15 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A31" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" s="99"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="89"/>
       <c r="J31" s="90"/>
       <c r="K31" s="90"/>
@@ -6487,15 +6591,15 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A32" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="89"/>
       <c r="J32" s="90"/>
       <c r="K32" s="90"/>
@@ -6510,17 +6614,17 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A33" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
@@ -6530,26 +6634,26 @@
       <c r="O33" s="90"/>
       <c r="P33" s="90"/>
       <c r="Q33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AG33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A34" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="89"/>
       <c r="J34" s="90"/>
       <c r="K34" s="90"/>
@@ -6564,14 +6668,14 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A35" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="85"/>
       <c r="I35" s="89"/>
       <c r="J35" s="90"/>
@@ -6587,14 +6691,14 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A36" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="85"/>
       <c r="I36" s="89"/>
       <c r="J36" s="90"/>
@@ -6610,14 +6714,14 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A37" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="85"/>
       <c r="D37" s="85"/>
       <c r="E37" s="85"/>
       <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="85"/>
       <c r="I37" s="89"/>
       <c r="J37" s="90"/>
@@ -6628,25 +6732,25 @@
       <c r="O37" s="90"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG37" s="91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A38" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" s="85"/>
       <c r="C38" s="85"/>
       <c r="D38" s="85"/>
       <c r="E38" s="85"/>
       <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="85"/>
       <c r="I38" s="89"/>
       <c r="J38" s="90"/>
@@ -6662,7 +6766,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A39" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B39" s="85"/>
       <c r="C39" s="85"/>
@@ -6685,7 +6789,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A40" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
@@ -6708,41 +6812,41 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="21" customHeight="1" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C43" s="58"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C44" s="59"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C45" s="60"/>
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C47" s="62"/>
     </row>
@@ -6910,7 +7014,7 @@
       <c r="B101" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="32">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="R1:Y1"/>
@@ -6924,6 +7028,25 @@
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G10:G16"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7399,7 +7522,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
@@ -7422,7 +7545,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -7445,7 +7568,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="86"/>
@@ -7468,7 +7591,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A14" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -7491,7 +7614,7 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -7514,7 +7637,7 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A16" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -7537,7 +7660,7 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A17" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="84"/>
       <c r="C17" s="85"/>
@@ -7560,7 +7683,7 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A18" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -7583,7 +7706,7 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A19" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -7606,7 +7729,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:33">
       <c r="A20" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -7616,7 +7739,7 @@
       <c r="G20" s="85"/>
       <c r="H20" s="85"/>
       <c r="I20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J20" s="90"/>
       <c r="K20" s="90"/>
@@ -7626,18 +7749,18 @@
       <c r="O20" s="90"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG20" s="91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A21" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -7660,7 +7783,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A22" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -7683,7 +7806,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A23" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="85"/>
@@ -7706,7 +7829,7 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A24" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="85"/>
       <c r="C24" s="85"/>
@@ -7729,7 +7852,7 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A25" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B25" s="85"/>
       <c r="C25" s="85"/>
@@ -7739,7 +7862,7 @@
       <c r="G25" s="85"/>
       <c r="H25" s="85"/>
       <c r="I25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J25" s="90"/>
       <c r="K25" s="90"/>
@@ -7749,18 +7872,18 @@
       <c r="O25" s="90"/>
       <c r="P25" s="90"/>
       <c r="Q25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Y25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AG25" s="91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A26" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
@@ -7783,7 +7906,7 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A27" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="85"/>
@@ -7806,7 +7929,7 @@
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A28" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" s="85"/>
       <c r="C28" s="85"/>
@@ -7829,7 +7952,7 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A29" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29" s="85"/>
       <c r="C29" s="85"/>
@@ -7852,7 +7975,7 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A30" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="85"/>
@@ -7875,7 +7998,7 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A31" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="85"/>
@@ -7898,7 +8021,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A32" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32" s="85"/>
       <c r="C32" s="85"/>
@@ -7921,7 +8044,7 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A33" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" s="85"/>
       <c r="C33" s="85"/>
@@ -7931,7 +8054,7 @@
       <c r="G33" s="85"/>
       <c r="H33" s="85"/>
       <c r="I33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J33" s="90"/>
       <c r="K33" s="90"/>
@@ -7941,18 +8064,18 @@
       <c r="O33" s="90"/>
       <c r="P33" s="90"/>
       <c r="Q33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AG33" s="91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A34" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="85"/>
@@ -7975,7 +8098,7 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A35" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="85"/>
@@ -7998,7 +8121,7 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A36" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85"/>
@@ -8021,7 +8144,7 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A37" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="85"/>
@@ -8039,18 +8162,18 @@
       <c r="O37" s="90"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y37" s="91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG37" s="91" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A38" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" s="85"/>
       <c r="C38" s="85"/>
@@ -8073,7 +8196,7 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A39" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B39" s="85"/>
       <c r="C39" s="85"/>
@@ -8096,7 +8219,7 @@
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:33">
       <c r="A40" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
@@ -8119,41 +8242,41 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="21" customHeight="1" spans="1:1">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C43" s="58"/>
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C44" s="59"/>
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C45" s="60"/>
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C46" s="61"/>
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:3">
       <c r="A47" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C47" s="62"/>
     </row>
@@ -8564,25 +8687,25 @@
         <v>19</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I7" s="74">
         <v>26</v>
@@ -8633,7 +8756,7 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J9" s="75"/>
       <c r="K9" s="74"/>
@@ -8667,18 +8790,18 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A11" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="27"/>
       <c r="D11" s="26"/>
       <c r="E11" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" s="73" t="s">
         <v>24</v>
@@ -8696,7 +8819,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A12" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="23"/>
@@ -8706,7 +8829,7 @@
       <c r="G12" s="24"/>
       <c r="H12" s="26"/>
       <c r="I12" s="74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J12" s="75"/>
       <c r="K12" s="74"/>
@@ -8719,7 +8842,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="29"/>
@@ -8729,7 +8852,7 @@
       <c r="G13" s="24"/>
       <c r="H13" s="32"/>
       <c r="I13" s="77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J13" s="75"/>
       <c r="K13" s="74"/>
@@ -8742,7 +8865,7 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A14" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>20</v>
@@ -8765,19 +8888,19 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A15" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15" s="66"/>
       <c r="F15" s="26"/>
       <c r="G15" s="24"/>
       <c r="H15" s="67"/>
       <c r="I15" s="75" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J15" s="75"/>
       <c r="K15" s="74"/>
@@ -8790,16 +8913,16 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A16" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="48"/>
@@ -8815,10 +8938,10 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A17" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="32"/>
@@ -8838,20 +8961,20 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A18" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="32"/>
       <c r="F18" s="46"/>
       <c r="G18" s="24"/>
       <c r="H18" s="30" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="I18" s="74"/>
       <c r="J18" s="75"/>
@@ -8865,22 +8988,22 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A19" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F19" s="48"/>
       <c r="G19" s="26"/>
       <c r="H19" s="69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I19" s="79"/>
       <c r="J19" s="75"/>
@@ -8894,20 +9017,20 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A20" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I20" s="79"/>
       <c r="J20" s="75"/>
@@ -8921,12 +9044,12 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A21" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="43"/>
       <c r="D21" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="46"/>
@@ -8944,7 +9067,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A22" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="44"/>
       <c r="C22" s="31"/>
@@ -8953,10 +9076,10 @@
       <c r="F22" s="48"/>
       <c r="G22" s="32"/>
       <c r="H22" s="67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J22" s="76"/>
       <c r="K22" s="74"/>
@@ -8966,26 +9089,26 @@
       <c r="O22" s="74"/>
       <c r="P22" s="74"/>
       <c r="Q22" s="73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A23" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="67"/>
       <c r="I23" s="74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J23" s="75"/>
       <c r="K23" s="74"/>
@@ -8998,21 +9121,21 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A24" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F24" s="46"/>
       <c r="G24" s="28"/>
       <c r="H24" s="48"/>
       <c r="I24" s="74" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J24" s="75"/>
       <c r="K24" s="74"/>
@@ -9025,10 +9148,10 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A25" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="32"/>
@@ -9036,10 +9159,10 @@
       <c r="F25" s="48"/>
       <c r="G25" s="28"/>
       <c r="H25" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I25" s="79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J25" s="75"/>
       <c r="K25" s="74"/>
@@ -9052,22 +9175,22 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A26" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="43"/>
       <c r="D26" s="46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="22" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H26" s="46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J26" s="75"/>
       <c r="K26" s="74"/>
@@ -9080,21 +9203,21 @@
     </row>
     <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A27" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B27" s="45"/>
       <c r="C27" s="47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="28"/>
       <c r="H27" s="48"/>
       <c r="I27" s="73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J27" s="76"/>
       <c r="K27" s="74"/>
@@ -9104,15 +9227,15 @@
       <c r="O27" s="74"/>
       <c r="P27" s="74"/>
       <c r="Q27" s="73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A28" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="32"/>
@@ -9120,10 +9243,10 @@
       <c r="F28" s="26"/>
       <c r="G28" s="28"/>
       <c r="H28" s="69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I28" s="74" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J28" s="75"/>
       <c r="K28" s="74"/>
@@ -9136,25 +9259,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A29" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B29" s="51"/>
       <c r="C29" s="23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J29" s="80"/>
       <c r="K29" s="74"/>
@@ -9167,21 +9290,21 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A30" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B30" s="52"/>
       <c r="C30" s="27"/>
       <c r="D30" s="48"/>
       <c r="E30" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="36"/>
       <c r="H30" s="30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I30" s="74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J30" s="80"/>
       <c r="K30" s="74"/>
@@ -9194,22 +9317,22 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A31" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C31" s="53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="40"/>
       <c r="G31" s="38"/>
       <c r="H31" s="30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I31" s="74"/>
       <c r="J31" s="80"/>
@@ -9223,7 +9346,7 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A32" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="31"/>
@@ -9244,20 +9367,20 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A33" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="40"/>
       <c r="H33" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I33" s="74"/>
       <c r="J33" s="75"/>
@@ -9271,20 +9394,20 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A34" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B34" s="40"/>
       <c r="C34" s="31"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G34" s="30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I34" s="74"/>
       <c r="J34" s="75"/>
@@ -9298,27 +9421,27 @@
     </row>
     <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A35" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G35" s="54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H35" s="54" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I35" s="73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J35" s="75"/>
       <c r="K35" s="74"/>
@@ -9328,12 +9451,12 @@
       <c r="O35" s="74"/>
       <c r="P35" s="74"/>
       <c r="Q35" s="73" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A36" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B36" s="38"/>
       <c r="C36" s="31"/>
@@ -9343,7 +9466,7 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="I36" s="82" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J36" s="75"/>
       <c r="K36" s="74"/>
@@ -9356,20 +9479,20 @@
     </row>
     <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A37" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" s="38"/>
       <c r="C37" s="31"/>
       <c r="D37" s="30" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="32"/>
       <c r="G37" s="30" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I37" s="83"/>
       <c r="J37" s="75"/>
@@ -9383,20 +9506,20 @@
     </row>
     <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A38" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="31"/>
       <c r="D38" s="28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="68" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I38" s="74"/>
       <c r="J38" s="75"/>
@@ -9410,22 +9533,22 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A39" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E39" s="46"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="70" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I39" s="74"/>
       <c r="J39" s="75"/>
@@ -9436,12 +9559,12 @@
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
       <c r="Q39" s="73" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:17">
       <c r="A40" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="37"/>
@@ -9462,7 +9585,7 @@
     </row>
     <row r="41" s="2" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2">
         <v>0.5</v>
@@ -9492,7 +9615,7 @@
     </row>
     <row r="42" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -9522,7 +9645,7 @@
     </row>
     <row r="43" s="4" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4">
         <v>4</v>
@@ -9552,7 +9675,7 @@
     </row>
     <row r="44" s="5" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A44" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B44" s="5">
         <v>6.5</v>
@@ -9582,7 +9705,7 @@
     </row>
     <row r="45" s="6" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B45" s="6">
         <v>4.5</v>
@@ -9612,7 +9735,7 @@
     </row>
     <row r="46" s="7" customFormat="1" ht="20.1" customHeight="1" spans="1:9">
       <c r="A46" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B46" s="7">
         <v>1.5</v>
@@ -9642,7 +9765,7 @@
     </row>
     <row r="47" s="8" customFormat="1" ht="17" customHeight="1" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8">
         <v>0</v>
